--- a/formats/excel/Formats RPSA 17.xlsx
+++ b/formats/excel/Formats RPSA 17.xlsx
@@ -1,22 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28109"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guillaumepressiat/Github/formats_pmeasyr/formats/excel/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="24240" windowHeight="12855"/>
+    <workbookView xWindow="1460" yWindow="460" windowWidth="27340" windowHeight="17540"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
     <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
     <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="95">
   <si>
     <t>libelle</t>
   </si>
@@ -111,9 +124,6 @@
     <t xml:space="preserve">N° séquentiel de séjour </t>
   </si>
   <si>
-    <t>NOSEJPSY</t>
-  </si>
-  <si>
     <t xml:space="preserve">Mode d'entrée de séjour </t>
   </si>
   <si>
@@ -301,19 +311,16 @@
   </si>
   <si>
     <t>ZAD</t>
+  </si>
+  <si>
+    <t>NOSEQSEJ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-  </numFmts>
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -321,346 +328,16 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -668,308 +345,24 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
-    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
-    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
-    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
-    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
-    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
-    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
-    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
-    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
-    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
-    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
-    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
-    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
-    <cellStyle name="Accent1" xfId="19" builtinId="29"/>
-    <cellStyle name="Comma[0]" xfId="20" builtinId="6"/>
-    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
-    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
-    <cellStyle name="Total" xfId="25" builtinId="25"/>
-    <cellStyle name="Output" xfId="26" builtinId="21"/>
-    <cellStyle name="Currency" xfId="27" builtinId="4"/>
-    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
-    <cellStyle name="Note" xfId="29" builtinId="10"/>
-    <cellStyle name="Input" xfId="30" builtinId="20"/>
-    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
-    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
-    <cellStyle name="Good" xfId="33" builtinId="26"/>
-    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
-    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
-    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
-    <cellStyle name="Currency[0]" xfId="37" builtinId="7"/>
-    <cellStyle name="Heading 1" xfId="38" builtinId="16"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50"/>
-    <cellStyle name="Title" xfId="40" builtinId="15"/>
-    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
-    <cellStyle name="20% - Accent1" xfId="42" builtinId="30"/>
-    <cellStyle name="Hyperlink" xfId="43" builtinId="8"/>
-    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9"/>
-    <cellStyle name="Heading 2" xfId="45" builtinId="17"/>
-    <cellStyle name="Comma" xfId="46" builtinId="3"/>
-    <cellStyle name="Check Cell" xfId="47" builtinId="23"/>
-    <cellStyle name="Percent" xfId="48" builtinId="5"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -978,7 +371,7 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="4C4C4C"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
         <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -1259,21 +652,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="66.7133333333333" customWidth="1"/>
-    <col min="6" max="6" width="14.7" customWidth="1"/>
+    <col min="1" max="1" width="66.6640625" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1293,7 +685,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1313,7 +705,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -1333,7 +725,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -1353,7 +745,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -1373,7 +765,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -1393,7 +785,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -1413,7 +805,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -1433,7 +825,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -1453,7 +845,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -1473,7 +865,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -1493,7 +885,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>28</v>
       </c>
@@ -1513,7 +905,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>30</v>
       </c>
@@ -1530,12 +922,12 @@
         <v>7</v>
       </c>
       <c r="F13" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" t="s">
-        <v>32</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -1550,12 +942,12 @@
         <v>7</v>
       </c>
       <c r="F14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" t="s">
-        <v>34</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -1570,12 +962,12 @@
         <v>7</v>
       </c>
       <c r="F15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" t="s">
-        <v>36</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -1590,12 +982,12 @@
         <v>7</v>
       </c>
       <c r="F16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" t="s">
-        <v>38</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -1610,12 +1002,12 @@
         <v>7</v>
       </c>
       <c r="F17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>39</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" t="s">
-        <v>40</v>
       </c>
       <c r="B18">
         <v>5</v>
@@ -1630,12 +1022,12 @@
         <v>7</v>
       </c>
       <c r="F18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" t="s">
-        <v>42</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -1650,12 +1042,12 @@
         <v>7</v>
       </c>
       <c r="F19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>43</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" t="s">
-        <v>44</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -1670,12 +1062,12 @@
         <v>7</v>
       </c>
       <c r="F20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>45</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" t="s">
-        <v>46</v>
       </c>
       <c r="B21">
         <v>3</v>
@@ -1690,12 +1082,12 @@
         <v>7</v>
       </c>
       <c r="F21" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>47</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" t="s">
-        <v>48</v>
       </c>
       <c r="B22">
         <v>5</v>
@@ -1710,12 +1102,12 @@
         <v>20</v>
       </c>
       <c r="F22" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>49</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" t="s">
-        <v>50</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -1730,12 +1122,12 @@
         <v>7</v>
       </c>
       <c r="F23" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>51</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" t="s">
-        <v>52</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -1750,12 +1142,12 @@
         <v>7</v>
       </c>
       <c r="F24" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" t="s">
-        <v>54</v>
       </c>
       <c r="B25">
         <v>2</v>
@@ -1770,12 +1162,12 @@
         <v>7</v>
       </c>
       <c r="F25" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>55</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" t="s">
-        <v>56</v>
       </c>
       <c r="B26">
         <v>4</v>
@@ -1790,12 +1182,12 @@
         <v>7</v>
       </c>
       <c r="F26" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
         <v>57</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" t="s">
-        <v>58</v>
       </c>
       <c r="B27">
         <v>3</v>
@@ -1810,12 +1202,12 @@
         <v>20</v>
       </c>
       <c r="F27" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>59</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" t="s">
-        <v>60</v>
       </c>
       <c r="B28">
         <v>3</v>
@@ -1830,12 +1222,12 @@
         <v>20</v>
       </c>
       <c r="F28" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
         <v>61</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" t="s">
-        <v>62</v>
       </c>
       <c r="B29">
         <v>3</v>
@@ -1850,12 +1242,12 @@
         <v>20</v>
       </c>
       <c r="F29" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
         <v>63</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" t="s">
-        <v>64</v>
       </c>
       <c r="B30">
         <v>3</v>
@@ -1870,12 +1262,12 @@
         <v>20</v>
       </c>
       <c r="F30" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
         <v>65</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" t="s">
-        <v>66</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -1890,12 +1282,12 @@
         <v>7</v>
       </c>
       <c r="F31" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
         <v>67</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" t="s">
-        <v>68</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -1910,12 +1302,12 @@
         <v>7</v>
       </c>
       <c r="F32" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
         <v>69</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" t="s">
-        <v>70</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -1930,12 +1322,12 @@
         <v>7</v>
       </c>
       <c r="F33" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
         <v>71</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" t="s">
-        <v>72</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -1950,12 +1342,12 @@
         <v>7</v>
       </c>
       <c r="F34" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
         <v>73</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" t="s">
-        <v>74</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -1970,12 +1362,12 @@
         <v>7</v>
       </c>
       <c r="F35" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
         <v>75</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" t="s">
-        <v>76</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -1990,12 +1382,12 @@
         <v>7</v>
       </c>
       <c r="F36" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
         <v>77</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" t="s">
-        <v>78</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -2010,12 +1402,12 @@
         <v>7</v>
       </c>
       <c r="F37" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
         <v>79</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" t="s">
-        <v>80</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -2030,12 +1422,12 @@
         <v>7</v>
       </c>
       <c r="F38" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
         <v>81</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" t="s">
-        <v>82</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -2050,10 +1442,10 @@
         <v>7</v>
       </c>
       <c r="F39" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="40" spans="2:6">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B40">
         <v>18</v>
       </c>
@@ -2067,12 +1459,12 @@
         <v>7</v>
       </c>
       <c r="F40" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
         <v>84</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41" t="s">
-        <v>85</v>
       </c>
       <c r="B41">
         <v>1</v>
@@ -2087,12 +1479,12 @@
         <v>7</v>
       </c>
       <c r="F41" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
         <v>86</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42" t="s">
-        <v>87</v>
       </c>
       <c r="B42">
         <v>6</v>
@@ -2107,12 +1499,12 @@
         <v>7</v>
       </c>
       <c r="F42" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
         <v>88</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43" t="s">
-        <v>89</v>
       </c>
       <c r="B43">
         <v>2</v>
@@ -2127,12 +1519,12 @@
         <v>20</v>
       </c>
       <c r="F43" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
         <v>90</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="A44" t="s">
-        <v>91</v>
       </c>
       <c r="B44">
         <v>2</v>
@@ -2147,12 +1539,12 @@
         <v>20</v>
       </c>
       <c r="F44" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
         <v>92</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
-      <c r="A45" t="s">
-        <v>93</v>
       </c>
       <c r="C45">
         <v>143</v>
@@ -2161,44 +1553,35 @@
         <v>7</v>
       </c>
       <c r="F45" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>